--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_89.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_89.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7013</v>
+        <v>1.8069</v>
       </c>
       <c r="J3" t="n">
-        <v>12.86</v>
+        <v>1.75</v>
       </c>
       <c r="K3" t="n">
-        <v>392.83</v>
+        <v>56.77</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="R3" t="n">
-        <v>844.0839999999999</v>
+        <v>873.3664</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.533</v>
+        <v>1.6323</v>
       </c>
       <c r="J4" t="n">
-        <v>9.890000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="K4" t="n">
-        <v>272.12</v>
+        <v>46.15</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="R4" t="n">
-        <v>796.7191</v>
+        <v>778.5621</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>8.030900000000001</v>
+        <v>8.1877</v>
       </c>
       <c r="J5" t="n">
-        <v>27.22</v>
+        <v>26.54</v>
       </c>
       <c r="K5" t="n">
-        <v>3924.76</v>
+        <v>3900.88</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>12.23</v>
+        <v>11.86</v>
       </c>
       <c r="R5" t="n">
-        <v>3419.1144</v>
+        <v>3327.991</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>9.504899999999999</v>
+        <v>9.867000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>26.55</v>
+        <v>26.38</v>
       </c>
       <c r="K6" t="n">
-        <v>4529.84</v>
+        <v>4673.65</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.869999999999999</v>
+        <v>10.13</v>
       </c>
       <c r="R6" t="n">
-        <v>2759.9324</v>
+        <v>2841.28</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3167</v>
+        <v>4.3854</v>
       </c>
       <c r="J7" t="n">
-        <v>31.86</v>
+        <v>32.21</v>
       </c>
       <c r="K7" t="n">
-        <v>2468.79</v>
+        <v>2536.35</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>7.11</v>
+        <v>7.21</v>
       </c>
       <c r="R7" t="n">
-        <v>1988.8741</v>
+        <v>2024.0591</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>48.6296</v>
+        <v>50.8025</v>
       </c>
       <c r="J8" t="n">
-        <v>4.16</v>
+        <v>4.07</v>
       </c>
       <c r="K8" t="n">
-        <v>3632.41</v>
+        <v>3709.01</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>12.99</v>
+        <v>12.93</v>
       </c>
       <c r="R8" t="n">
-        <v>3631.6714</v>
+        <v>3626.7618</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-3p450mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-3p450mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>9.411199999999999</v>
+        <v>10.7839</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="K9" t="n">
-        <v>329.16</v>
+        <v>345.28</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="R9" t="n">
-        <v>258.0833</v>
+        <v>275.1921</v>
       </c>
     </row>
   </sheetData>
